--- a/数据整理/stocks/A股/上证主板/605589-圣泉集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/605589-圣泉集团.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,13 +901,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>3.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605589-圣泉集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/605589-圣泉集团.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.85</v>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1181,13 +1224,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>3.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605589-圣泉集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/605589-圣泉集团.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009539</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴业睿进混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9380</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011820</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴业兴智一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7545</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -580,264 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010490</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华高质量增长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5869</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013049</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴业能源革新股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3971</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011821</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴业兴智一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2538</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1724</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>013050</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>兴业能源革新股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1606</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010491</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华高质量增长混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009540</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>兴业睿进混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.28</v>
       </c>
     </row>
   </sheetData>
@@ -846,6 +532,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1129,13 +985,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1186,36 +1042,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010490</t>
+          <t>009539</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华高质量增长混合A</t>
+          <t>兴业睿进混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.47</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>89.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4703</t>
+          <t>0.9380</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1224,36 +1080,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009023</t>
+          <t>011820</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华稳健回报混合</t>
+          <t>兴业兴智一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>35.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>80.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1580</t>
+          <t>0.7545</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1262,120 +1118,264 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5869</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3971</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>010491</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>鹏华高质量增长混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.28</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/605589-圣泉集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/605589-圣泉集团.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3.28</v>
       </c>
     </row>
@@ -532,6 +549,552 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3843</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014701</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧量化动能混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014702</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧量化动能混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009719</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009718</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -701,7 +1264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -985,7 +1548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
